--- a/forms/Form-3AR-multiple.xlsx
+++ b/forms/Form-3AR-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A7229F-8061-4C82-94B3-3ED3E7CC76A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD518AD6-202B-4BD8-B656-8B08B417633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+fpbANi5+/yFWHPxzEqaReNDzPx7npT1czOQfFrctV9jGFhmw0Jnw7c42DyBMqUzdexUCp19VjI1OGlWew7xXA==" workbookSaltValue="bMmY3IsF10EHABvsu//kNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Focal point</t>
   </si>
@@ -144,9 +144,6 @@
     <t>3-AR-multiple</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -154,6 +151,12 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
+  </si>
+  <si>
+    <t>Target species</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1004,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1060,21 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1409,24 +1412,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1441,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1476,15 +1479,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="86"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1599,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="10"/>
@@ -1655,11 +1658,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1676,7 +1679,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0YoPx5cvzBo7Ymv5oUi/iQBvH5cwP/3rsWUB1Zd32ZYqjICiokGHq3Jh4LZTsn4DeqxFhivcxCbFYKiyw13+rA==" saltValue="7sTZuRuSv3UgejYuX225ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/z3W/7ENG2K0DuEPbttEP5pzCCwAZTuGVHeMfwc7trB3urK7j70yj61vOfNYLnxZPjsTgvYRhQ2HGbdCOIkCMw==" saltValue="7WbN+249HIRqmSf8eWmtIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1699,7 +1702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
-  <dimension ref="A1:BP1048576"/>
+  <dimension ref="A1:BQ1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1712,53 +1715,53 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="47" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="54" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="43" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="54" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="52" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="50"/>
-    <col min="20" max="67" width="9.140625" style="42"/>
-    <col min="68" max="68" width="9.140625" style="48"/>
-    <col min="69" max="16384" width="9.140625" style="24"/>
+    <col min="3" max="4" width="15.7109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="47" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="47" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="54" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="42" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="54" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="52" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="50"/>
+    <col min="21" max="68" width="9.140625" style="42"/>
+    <col min="69" max="69" width="9.140625" style="48"/>
+    <col min="70" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="Q1" s="37"/>
-    </row>
-    <row r="2" spans="2:68" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:69" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="R1" s="37"/>
+    </row>
+    <row r="2" spans="2:69" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="34"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
@@ -1808,109 +1811,111 @@
       <c r="BM2" s="34"/>
       <c r="BN2" s="34"/>
       <c r="BO2" s="34"/>
-      <c r="BP2" s="36"/>
-    </row>
-    <row r="3" spans="2:68" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="93" t="s">
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="36"/>
+    </row>
+    <row r="3" spans="2:69" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="94"/>
-      <c r="BI3" s="94"/>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="94"/>
-      <c r="BN3" s="94"/>
-      <c r="BO3" s="94"/>
-      <c r="BP3" s="95"/>
-    </row>
-    <row r="4" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="98"/>
+      <c r="BC3" s="98"/>
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="98"/>
+      <c r="BM3" s="98"/>
+      <c r="BN3" s="98"/>
+      <c r="BO3" s="98"/>
+      <c r="BP3" s="98"/>
+      <c r="BQ3" s="99"/>
+    </row>
+    <row r="4" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="96" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="96" t="s">
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="81" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
+      <c r="T4" s="44"/>
       <c r="U4" s="45"/>
       <c r="V4" s="45"/>
       <c r="W4" s="45"/>
@@ -1958,62 +1963,65 @@
       <c r="BM4" s="45"/>
       <c r="BN4" s="45"/>
       <c r="BO4" s="45"/>
-      <c r="BP4" s="46"/>
-    </row>
-    <row r="5" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP4" s="45"/>
+      <c r="BQ4" s="46"/>
+    </row>
+    <row r="5" spans="2:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="F5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="G5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="H5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="I5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="70" t="s">
-        <v>37</v>
+      <c r="J5" s="70" t="s">
+        <v>36</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="K5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="102" t="s">
-        <v>36</v>
+      <c r="L5" s="83" t="s">
+        <v>35</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="M5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="N5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="O5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="79" t="s">
+      <c r="P5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="105" t="s">
+      <c r="Q5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="80" t="s">
+      <c r="R5" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="82" t="s">
+      <c r="S5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="25"/>
+      <c r="T5" s="72"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
@@ -2061,28 +2069,29 @@
       <c r="BM5" s="25"/>
       <c r="BN5" s="25"/>
       <c r="BO5" s="25"/>
-      <c r="BP5" s="26"/>
-    </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="26"/>
+    </row>
+    <row r="6" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="65"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="64"/>
       <c r="U6" s="65"/>
       <c r="V6" s="65"/>
       <c r="W6" s="65"/>
@@ -2130,28 +2139,29 @@
       <c r="BM6" s="65"/>
       <c r="BN6" s="65"/>
       <c r="BO6" s="65"/>
-      <c r="BP6" s="66"/>
-    </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP6" s="65"/>
+      <c r="BQ6" s="66"/>
+    </row>
+    <row r="7" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="32"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -2199,28 +2209,29 @@
       <c r="BM7" s="32"/>
       <c r="BN7" s="32"/>
       <c r="BO7" s="32"/>
-      <c r="BP7" s="33"/>
-    </row>
-    <row r="8" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="33"/>
+    </row>
+    <row r="8" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="32"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
@@ -2268,28 +2279,29 @@
       <c r="BM8" s="32"/>
       <c r="BN8" s="32"/>
       <c r="BO8" s="32"/>
-      <c r="BP8" s="33"/>
-    </row>
-    <row r="9" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="33"/>
+    </row>
+    <row r="9" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="32"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
@@ -2337,28 +2349,29 @@
       <c r="BM9" s="32"/>
       <c r="BN9" s="32"/>
       <c r="BO9" s="32"/>
-      <c r="BP9" s="33"/>
-    </row>
-    <row r="10" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="33"/>
+    </row>
+    <row r="10" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="32"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="49"/>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
@@ -2406,28 +2419,29 @@
       <c r="BM10" s="32"/>
       <c r="BN10" s="32"/>
       <c r="BO10" s="32"/>
-      <c r="BP10" s="33"/>
-    </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="33"/>
+    </row>
+    <row r="11" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="32"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="49"/>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
@@ -2475,28 +2489,29 @@
       <c r="BM11" s="32"/>
       <c r="BN11" s="32"/>
       <c r="BO11" s="32"/>
-      <c r="BP11" s="33"/>
-    </row>
-    <row r="12" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP11" s="32"/>
+      <c r="BQ11" s="33"/>
+    </row>
+    <row r="12" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="32"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="49"/>
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
@@ -2544,28 +2559,29 @@
       <c r="BM12" s="32"/>
       <c r="BN12" s="32"/>
       <c r="BO12" s="32"/>
-      <c r="BP12" s="33"/>
-    </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="33"/>
+    </row>
+    <row r="13" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="32"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="49"/>
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
@@ -2613,28 +2629,29 @@
       <c r="BM13" s="32"/>
       <c r="BN13" s="32"/>
       <c r="BO13" s="32"/>
-      <c r="BP13" s="33"/>
-    </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="33"/>
+    </row>
+    <row r="14" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="32"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="49"/>
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
@@ -2682,28 +2699,29 @@
       <c r="BM14" s="32"/>
       <c r="BN14" s="32"/>
       <c r="BO14" s="32"/>
-      <c r="BP14" s="33"/>
-    </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="33"/>
+    </row>
+    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="32"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="49"/>
       <c r="U15" s="32"/>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
@@ -2751,28 +2769,29 @@
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
       <c r="BO15" s="32"/>
-      <c r="BP15" s="33"/>
-    </row>
-    <row r="16" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="33"/>
+    </row>
+    <row r="16" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="32"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="49"/>
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
@@ -2820,28 +2839,29 @@
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
       <c r="BO16" s="32"/>
-      <c r="BP16" s="33"/>
-    </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="33"/>
+    </row>
+    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="32"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="49"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -2889,28 +2909,29 @@
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
       <c r="BO17" s="32"/>
-      <c r="BP17" s="33"/>
-    </row>
-    <row r="18" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="33"/>
+    </row>
+    <row r="18" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="32"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="49"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -2958,28 +2979,29 @@
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
       <c r="BO18" s="32"/>
-      <c r="BP18" s="33"/>
-    </row>
-    <row r="19" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="33"/>
+    </row>
+    <row r="19" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="32"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="49"/>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -3027,28 +3049,29 @@
       <c r="BM19" s="32"/>
       <c r="BN19" s="32"/>
       <c r="BO19" s="32"/>
-      <c r="BP19" s="33"/>
-    </row>
-    <row r="20" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="33"/>
+    </row>
+    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="32"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="49"/>
       <c r="U20" s="32"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
@@ -3096,28 +3119,29 @@
       <c r="BM20" s="32"/>
       <c r="BN20" s="32"/>
       <c r="BO20" s="32"/>
-      <c r="BP20" s="33"/>
-    </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="33"/>
+    </row>
+    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="32"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="49"/>
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -3165,28 +3189,29 @@
       <c r="BM21" s="32"/>
       <c r="BN21" s="32"/>
       <c r="BO21" s="32"/>
-      <c r="BP21" s="33"/>
-    </row>
-    <row r="22" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="33"/>
+    </row>
+    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="32"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="49"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -3234,28 +3259,29 @@
       <c r="BM22" s="32"/>
       <c r="BN22" s="32"/>
       <c r="BO22" s="32"/>
-      <c r="BP22" s="33"/>
-    </row>
-    <row r="23" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="33"/>
+    </row>
+    <row r="23" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="32"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="49"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -3303,28 +3329,29 @@
       <c r="BM23" s="32"/>
       <c r="BN23" s="32"/>
       <c r="BO23" s="32"/>
-      <c r="BP23" s="33"/>
-    </row>
-    <row r="24" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="33"/>
+    </row>
+    <row r="24" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="32"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="49"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -3372,28 +3399,29 @@
       <c r="BM24" s="32"/>
       <c r="BN24" s="32"/>
       <c r="BO24" s="32"/>
-      <c r="BP24" s="33"/>
-    </row>
-    <row r="25" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP24" s="32"/>
+      <c r="BQ24" s="33"/>
+    </row>
+    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="32"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="49"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -3441,28 +3469,29 @@
       <c r="BM25" s="32"/>
       <c r="BN25" s="32"/>
       <c r="BO25" s="32"/>
-      <c r="BP25" s="33"/>
-    </row>
-    <row r="26" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP25" s="32"/>
+      <c r="BQ25" s="33"/>
+    </row>
+    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="32"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="49"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -3510,28 +3539,29 @@
       <c r="BM26" s="32"/>
       <c r="BN26" s="32"/>
       <c r="BO26" s="32"/>
-      <c r="BP26" s="33"/>
-    </row>
-    <row r="27" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP26" s="32"/>
+      <c r="BQ26" s="33"/>
+    </row>
+    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="32"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="49"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -3579,28 +3609,29 @@
       <c r="BM27" s="32"/>
       <c r="BN27" s="32"/>
       <c r="BO27" s="32"/>
-      <c r="BP27" s="33"/>
-    </row>
-    <row r="28" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="33"/>
+    </row>
+    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="32"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="49"/>
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -3648,28 +3679,29 @@
       <c r="BM28" s="32"/>
       <c r="BN28" s="32"/>
       <c r="BO28" s="32"/>
-      <c r="BP28" s="33"/>
-    </row>
-    <row r="29" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="33"/>
+    </row>
+    <row r="29" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="32"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="49"/>
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -3717,28 +3749,29 @@
       <c r="BM29" s="32"/>
       <c r="BN29" s="32"/>
       <c r="BO29" s="32"/>
-      <c r="BP29" s="33"/>
-    </row>
-    <row r="30" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="33"/>
+    </row>
+    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="32"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="49"/>
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -3786,28 +3819,29 @@
       <c r="BM30" s="32"/>
       <c r="BN30" s="32"/>
       <c r="BO30" s="32"/>
-      <c r="BP30" s="33"/>
-    </row>
-    <row r="31" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP30" s="32"/>
+      <c r="BQ30" s="33"/>
+    </row>
+    <row r="31" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="32"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="49"/>
       <c r="U31" s="32"/>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
@@ -3855,28 +3889,29 @@
       <c r="BM31" s="32"/>
       <c r="BN31" s="32"/>
       <c r="BO31" s="32"/>
-      <c r="BP31" s="33"/>
-    </row>
-    <row r="32" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP31" s="32"/>
+      <c r="BQ31" s="33"/>
+    </row>
+    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="32"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="49"/>
       <c r="U32" s="32"/>
       <c r="V32" s="32"/>
       <c r="W32" s="32"/>
@@ -3924,28 +3959,29 @@
       <c r="BM32" s="32"/>
       <c r="BN32" s="32"/>
       <c r="BO32" s="32"/>
-      <c r="BP32" s="33"/>
-    </row>
-    <row r="33" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP32" s="32"/>
+      <c r="BQ32" s="33"/>
+    </row>
+    <row r="33" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="32"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="49"/>
       <c r="U33" s="32"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
@@ -3993,28 +4029,29 @@
       <c r="BM33" s="32"/>
       <c r="BN33" s="32"/>
       <c r="BO33" s="32"/>
-      <c r="BP33" s="33"/>
-    </row>
-    <row r="34" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP33" s="32"/>
+      <c r="BQ33" s="33"/>
+    </row>
+    <row r="34" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="32"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="49"/>
       <c r="U34" s="32"/>
       <c r="V34" s="32"/>
       <c r="W34" s="32"/>
@@ -4062,28 +4099,29 @@
       <c r="BM34" s="32"/>
       <c r="BN34" s="32"/>
       <c r="BO34" s="32"/>
-      <c r="BP34" s="33"/>
-    </row>
-    <row r="35" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP34" s="32"/>
+      <c r="BQ34" s="33"/>
+    </row>
+    <row r="35" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="32"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="49"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
       <c r="W35" s="32"/>
@@ -4131,28 +4169,29 @@
       <c r="BM35" s="32"/>
       <c r="BN35" s="32"/>
       <c r="BO35" s="32"/>
-      <c r="BP35" s="33"/>
-    </row>
-    <row r="36" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP35" s="32"/>
+      <c r="BQ35" s="33"/>
+    </row>
+    <row r="36" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="32"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="49"/>
       <c r="U36" s="32"/>
       <c r="V36" s="32"/>
       <c r="W36" s="32"/>
@@ -4200,28 +4239,29 @@
       <c r="BM36" s="32"/>
       <c r="BN36" s="32"/>
       <c r="BO36" s="32"/>
-      <c r="BP36" s="33"/>
-    </row>
-    <row r="37" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP36" s="32"/>
+      <c r="BQ36" s="33"/>
+    </row>
+    <row r="37" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="32"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="49"/>
       <c r="U37" s="32"/>
       <c r="V37" s="32"/>
       <c r="W37" s="32"/>
@@ -4269,28 +4309,29 @@
       <c r="BM37" s="32"/>
       <c r="BN37" s="32"/>
       <c r="BO37" s="32"/>
-      <c r="BP37" s="33"/>
-    </row>
-    <row r="38" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP37" s="32"/>
+      <c r="BQ37" s="33"/>
+    </row>
+    <row r="38" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="32"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="49"/>
       <c r="U38" s="32"/>
       <c r="V38" s="32"/>
       <c r="W38" s="32"/>
@@ -4338,28 +4379,29 @@
       <c r="BM38" s="32"/>
       <c r="BN38" s="32"/>
       <c r="BO38" s="32"/>
-      <c r="BP38" s="33"/>
-    </row>
-    <row r="39" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP38" s="32"/>
+      <c r="BQ38" s="33"/>
+    </row>
+    <row r="39" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="32"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="49"/>
       <c r="U39" s="32"/>
       <c r="V39" s="32"/>
       <c r="W39" s="32"/>
@@ -4407,28 +4449,29 @@
       <c r="BM39" s="32"/>
       <c r="BN39" s="32"/>
       <c r="BO39" s="32"/>
-      <c r="BP39" s="33"/>
-    </row>
-    <row r="40" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP39" s="32"/>
+      <c r="BQ39" s="33"/>
+    </row>
+    <row r="40" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="32"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="49"/>
       <c r="U40" s="32"/>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
@@ -4476,28 +4519,29 @@
       <c r="BM40" s="32"/>
       <c r="BN40" s="32"/>
       <c r="BO40" s="32"/>
-      <c r="BP40" s="33"/>
-    </row>
-    <row r="41" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP40" s="32"/>
+      <c r="BQ40" s="33"/>
+    </row>
+    <row r="41" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="32"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="49"/>
       <c r="U41" s="32"/>
       <c r="V41" s="32"/>
       <c r="W41" s="32"/>
@@ -4545,28 +4589,29 @@
       <c r="BM41" s="32"/>
       <c r="BN41" s="32"/>
       <c r="BO41" s="32"/>
-      <c r="BP41" s="33"/>
-    </row>
-    <row r="42" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP41" s="32"/>
+      <c r="BQ41" s="33"/>
+    </row>
+    <row r="42" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="32"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="49"/>
       <c r="U42" s="32"/>
       <c r="V42" s="32"/>
       <c r="W42" s="32"/>
@@ -4614,28 +4659,29 @@
       <c r="BM42" s="32"/>
       <c r="BN42" s="32"/>
       <c r="BO42" s="32"/>
-      <c r="BP42" s="33"/>
-    </row>
-    <row r="43" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP42" s="32"/>
+      <c r="BQ42" s="33"/>
+    </row>
+    <row r="43" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="32"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="49"/>
       <c r="U43" s="32"/>
       <c r="V43" s="32"/>
       <c r="W43" s="32"/>
@@ -4683,28 +4729,29 @@
       <c r="BM43" s="32"/>
       <c r="BN43" s="32"/>
       <c r="BO43" s="32"/>
-      <c r="BP43" s="33"/>
-    </row>
-    <row r="44" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP43" s="32"/>
+      <c r="BQ43" s="33"/>
+    </row>
+    <row r="44" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="32"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="49"/>
       <c r="U44" s="32"/>
       <c r="V44" s="32"/>
       <c r="W44" s="32"/>
@@ -4752,28 +4799,29 @@
       <c r="BM44" s="32"/>
       <c r="BN44" s="32"/>
       <c r="BO44" s="32"/>
-      <c r="BP44" s="33"/>
-    </row>
-    <row r="45" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP44" s="32"/>
+      <c r="BQ44" s="33"/>
+    </row>
+    <row r="45" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="32"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="49"/>
       <c r="U45" s="32"/>
       <c r="V45" s="32"/>
       <c r="W45" s="32"/>
@@ -4821,28 +4869,29 @@
       <c r="BM45" s="32"/>
       <c r="BN45" s="32"/>
       <c r="BO45" s="32"/>
-      <c r="BP45" s="33"/>
-    </row>
-    <row r="46" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP45" s="32"/>
+      <c r="BQ45" s="33"/>
+    </row>
+    <row r="46" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="32"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="49"/>
       <c r="U46" s="32"/>
       <c r="V46" s="32"/>
       <c r="W46" s="32"/>
@@ -4890,28 +4939,29 @@
       <c r="BM46" s="32"/>
       <c r="BN46" s="32"/>
       <c r="BO46" s="32"/>
-      <c r="BP46" s="33"/>
-    </row>
-    <row r="47" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP46" s="32"/>
+      <c r="BQ46" s="33"/>
+    </row>
+    <row r="47" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="32"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="49"/>
       <c r="U47" s="32"/>
       <c r="V47" s="32"/>
       <c r="W47" s="32"/>
@@ -4959,28 +5009,29 @@
       <c r="BM47" s="32"/>
       <c r="BN47" s="32"/>
       <c r="BO47" s="32"/>
-      <c r="BP47" s="33"/>
-    </row>
-    <row r="48" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP47" s="32"/>
+      <c r="BQ47" s="33"/>
+    </row>
+    <row r="48" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="32"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="49"/>
       <c r="U48" s="32"/>
       <c r="V48" s="32"/>
       <c r="W48" s="32"/>
@@ -5028,28 +5079,29 @@
       <c r="BM48" s="32"/>
       <c r="BN48" s="32"/>
       <c r="BO48" s="32"/>
-      <c r="BP48" s="33"/>
-    </row>
-    <row r="49" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP48" s="32"/>
+      <c r="BQ48" s="33"/>
+    </row>
+    <row r="49" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="32"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="49"/>
       <c r="U49" s="32"/>
       <c r="V49" s="32"/>
       <c r="W49" s="32"/>
@@ -5097,28 +5149,29 @@
       <c r="BM49" s="32"/>
       <c r="BN49" s="32"/>
       <c r="BO49" s="32"/>
-      <c r="BP49" s="33"/>
-    </row>
-    <row r="50" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP49" s="32"/>
+      <c r="BQ49" s="33"/>
+    </row>
+    <row r="50" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="32"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="49"/>
       <c r="U50" s="32"/>
       <c r="V50" s="32"/>
       <c r="W50" s="32"/>
@@ -5166,28 +5219,29 @@
       <c r="BM50" s="32"/>
       <c r="BN50" s="32"/>
       <c r="BO50" s="32"/>
-      <c r="BP50" s="33"/>
-    </row>
-    <row r="51" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP50" s="32"/>
+      <c r="BQ50" s="33"/>
+    </row>
+    <row r="51" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="32"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="49"/>
       <c r="U51" s="32"/>
       <c r="V51" s="32"/>
       <c r="W51" s="32"/>
@@ -5235,28 +5289,29 @@
       <c r="BM51" s="32"/>
       <c r="BN51" s="32"/>
       <c r="BO51" s="32"/>
-      <c r="BP51" s="33"/>
-    </row>
-    <row r="52" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP51" s="32"/>
+      <c r="BQ51" s="33"/>
+    </row>
+    <row r="52" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="32"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="49"/>
       <c r="U52" s="32"/>
       <c r="V52" s="32"/>
       <c r="W52" s="32"/>
@@ -5304,28 +5359,29 @@
       <c r="BM52" s="32"/>
       <c r="BN52" s="32"/>
       <c r="BO52" s="32"/>
-      <c r="BP52" s="33"/>
-    </row>
-    <row r="53" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP52" s="32"/>
+      <c r="BQ52" s="33"/>
+    </row>
+    <row r="53" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="32"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="49"/>
       <c r="U53" s="32"/>
       <c r="V53" s="32"/>
       <c r="W53" s="32"/>
@@ -5373,28 +5429,29 @@
       <c r="BM53" s="32"/>
       <c r="BN53" s="32"/>
       <c r="BO53" s="32"/>
-      <c r="BP53" s="33"/>
-    </row>
-    <row r="54" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP53" s="32"/>
+      <c r="BQ53" s="33"/>
+    </row>
+    <row r="54" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="32"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="49"/>
       <c r="U54" s="32"/>
       <c r="V54" s="32"/>
       <c r="W54" s="32"/>
@@ -5442,28 +5499,29 @@
       <c r="BM54" s="32"/>
       <c r="BN54" s="32"/>
       <c r="BO54" s="32"/>
-      <c r="BP54" s="33"/>
-    </row>
-    <row r="55" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BP54" s="32"/>
+      <c r="BQ54" s="33"/>
+    </row>
+    <row r="55" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="32"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="49"/>
       <c r="U55" s="32"/>
       <c r="V55" s="32"/>
       <c r="W55" s="32"/>
@@ -5511,42 +5569,47 @@
       <c r="BM55" s="32"/>
       <c r="BN55" s="32"/>
       <c r="BO55" s="32"/>
-      <c r="BP55" s="33"/>
-    </row>
-    <row r="1048576" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R1048576" s="53"/>
+      <c r="BP55" s="32"/>
+      <c r="BQ55" s="33"/>
+    </row>
+    <row r="1048576" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S1048576" s="53"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C/VuG0upV4wWoLLrJCy+PW+iQx/24+up4p0C3tzpRmysfwmAEfTovkwI19LNP4mPtVnMwlXsNyz6EpZHTUCPWA==" saltValue="EThES6xqNdy/dn8mkoL5Sw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UJ/l6Dp57n5EXak/I0C4ijeZDdMtsb5EmZBHDh8WfNldw4fQPIh9ATxAd9pzxptKu/+atnNtoQ/HyMiCv/Uurg==" saltValue="Zs3XDgbzVESCbltWiNZuWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
-    <mergeCell ref="S3:BP3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="T3:BQ3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="B2:R3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:R5 L5 N5 P5 C5:H5 J5 I5" xr:uid="{B1699078-27D6-472D-B920-0B9DAA1EA97D}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 M5 O5 Q5 J5 K5 C5 E5:I5" xr:uid="{B1699078-27D6-472D-B920-0B9DAA1EA97D}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{87FE9B35-DFCC-43D6-898C-FAD86BBA51D1}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{49875047-06BE-417D-B0D8-3E3473EE074E}"/>
-    <hyperlink ref="D5" r:id="rId2" location="IOTCgridsAR" xr:uid="{1F17360D-E072-42ED-BDD1-48718D043D1E}"/>
-    <hyperlink ref="E5" r:id="rId3" location="estimations" xr:uid="{DD78D009-03E6-435B-BBA4-520BAF416FB6}"/>
-    <hyperlink ref="F5" r:id="rId4" location="types" xr:uid="{497BABFF-885A-46FC-B1A4-03D09FD5942B}"/>
-    <hyperlink ref="G5" r:id="rId5" location="sourcesCE" xr:uid="{3F4D7DBD-84BD-43F0-9B3B-7589DB1BFA50}"/>
-    <hyperlink ref="J5" r:id="rId6" location="coverageTypes" xr:uid="{601D16CC-2949-4AD0-BA9C-82C1BE8C187F}"/>
-    <hyperlink ref="L5" r:id="rId7" location="effortUnits" xr:uid="{8051B30D-98F8-4477-9F7E-1A135BBD2F2C}"/>
-    <hyperlink ref="N5" r:id="rId8" location="effortUnits" xr:uid="{7FCA406E-E768-40D1-A2B2-6FB71C3E1920}"/>
-    <hyperlink ref="P5" r:id="rId9" location="effortUnits" xr:uid="{A2AE3004-A370-45A5-BA8A-3AD36F80F8AC}"/>
-    <hyperlink ref="R4" r:id="rId10" location="species" xr:uid="{881B79FF-8AB2-425C-8CE0-D5E0F9AE1D31}"/>
-    <hyperlink ref="R5" r:id="rId11" location="catchUnits" xr:uid="{6FE744E9-5607-48A9-9B82-8239617B5ADF}"/>
-    <hyperlink ref="H5" r:id="rId12" location="processingsCE" xr:uid="{CF7054C2-FBB2-4ABF-8853-171E5AC0F1C3}"/>
-    <hyperlink ref="I5" r:id="rId13" location="raisings" xr:uid="{938B1907-A881-4315-B3E8-C57C314C93A5}"/>
+    <hyperlink ref="E5" r:id="rId2" location="IOTCgridsAR" xr:uid="{1F17360D-E072-42ED-BDD1-48718D043D1E}"/>
+    <hyperlink ref="F5" r:id="rId3" location="estimations" xr:uid="{DD78D009-03E6-435B-BBA4-520BAF416FB6}"/>
+    <hyperlink ref="G5" r:id="rId4" location="types" xr:uid="{497BABFF-885A-46FC-B1A4-03D09FD5942B}"/>
+    <hyperlink ref="H5" r:id="rId5" location="sourcesCE" xr:uid="{3F4D7DBD-84BD-43F0-9B3B-7589DB1BFA50}"/>
+    <hyperlink ref="K5" r:id="rId6" location="coverageTypes" xr:uid="{601D16CC-2949-4AD0-BA9C-82C1BE8C187F}"/>
+    <hyperlink ref="M5" r:id="rId7" location="effortUnits" xr:uid="{8051B30D-98F8-4477-9F7E-1A135BBD2F2C}"/>
+    <hyperlink ref="O5" r:id="rId8" location="effortUnits" xr:uid="{7FCA406E-E768-40D1-A2B2-6FB71C3E1920}"/>
+    <hyperlink ref="Q5" r:id="rId9" location="effortUnits" xr:uid="{A2AE3004-A370-45A5-BA8A-3AD36F80F8AC}"/>
+    <hyperlink ref="S4" r:id="rId10" location="species" xr:uid="{881B79FF-8AB2-425C-8CE0-D5E0F9AE1D31}"/>
+    <hyperlink ref="S5" r:id="rId11" location="catchUnits" xr:uid="{6FE744E9-5607-48A9-9B82-8239617B5ADF}"/>
+    <hyperlink ref="I5" r:id="rId12" location="processingsCE" xr:uid="{CF7054C2-FBB2-4ABF-8853-171E5AC0F1C3}"/>
+    <hyperlink ref="J5" r:id="rId13" location="raisings" xr:uid="{938B1907-A881-4315-B3E8-C57C314C93A5}"/>
+    <hyperlink ref="D5" r:id="rId14" location="species" xr:uid="{BDF0E6B9-3451-4647-B5BD-D5EF26BEE72C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/forms/Form-3AR-multiple.xlsx
+++ b/forms/Form-3AR-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD518AD6-202B-4BD8-B656-8B08B417633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA93F59-81CB-412E-812E-7A2879025811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+fpbANi5+/yFWHPxzEqaReNDzPx7npT1czOQfFrctV9jGFhmw0Jnw7c42DyBMqUzdexUCp19VjI1OGlWew7xXA==" workbookSaltValue="bMmY3IsF10EHABvsu//kNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="32715" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1966,7 +1966,7 @@
       <c r="BP4" s="45"/>
       <c r="BQ4" s="46"/>
     </row>
-    <row r="5" spans="2:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="67" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="S1048576" s="53"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UJ/l6Dp57n5EXak/I0C4ijeZDdMtsb5EmZBHDh8WfNldw4fQPIh9ATxAd9pzxptKu/+atnNtoQ/HyMiCv/Uurg==" saltValue="Zs3XDgbzVESCbltWiNZuWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D1a8kN8ZiG7GMvhYHXpgZJ4eGgHFaIGoW+hRc2Jznz349uAvHPHL5jYmIK9r2sdhczfvJOVXq60jYGlDSMHPsA==" saltValue="LjjV0cpjndXxrJVGyan5Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="T3:BQ3"/>
     <mergeCell ref="B4:F4"/>
@@ -5585,11 +5585,8 @@
     <mergeCell ref="M4:R4"/>
     <mergeCell ref="B2:R3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 M5 O5 Q5 J5 K5 C5 E5:I5" xr:uid="{B1699078-27D6-472D-B920-0B9DAA1EA97D}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{87FE9B35-DFCC-43D6-898C-FAD86BBA51D1}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 M5 O5 Q5 C5:K5" xr:uid="{B1699078-27D6-472D-B920-0B9DAA1EA97D}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/forms/Form-3AR-multiple.xlsx
+++ b/forms/Form-3AR-multiple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774C061-AE43-4A03-81D5-9E0A781A5E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B04B88-3612-4C35-94B8-9F7ACC4B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+fpbANi5+/yFWHPxzEqaReNDzPx7npT1czOQfFrctV9jGFhmw0Jnw7c42DyBMqUzdexUCp19VjI1OGlWew7xXA==" workbookSaltValue="bMmY3IsF10EHABvsu//kNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -277,9 +277,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightUp">
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -886,214 +885,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1421,24 +1435,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1488,15 +1502,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1621,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="36"/>
@@ -1618,7 +1632,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="36"/>
@@ -1667,11 +1681,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1725,22 +1739,22 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="42" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="83" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="84" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="85" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="84" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="85" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="86" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="85" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="87" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="83" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" style="87" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="83" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="86" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="44" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="78"/>
+    <col min="4" max="4" width="15.7109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="63" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="62" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="64" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="63" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="65" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="61" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="65" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="61" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="64" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="100" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="56"/>
     <col min="21" max="118" width="9.140625" style="37"/>
     <col min="119" max="119" width="9.140625" style="34"/>
     <col min="120" max="16384" width="9.140625" style="24"/>
@@ -1753,25 +1767,25 @@
       <c r="R1" s="33"/>
     </row>
     <row r="2" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
       <c r="S2" s="30"/>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
@@ -1875,154 +1889,154 @@
       <c r="DO2" s="32"/>
     </row>
     <row r="3" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
       <c r="S3" s="31"/>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="69"/>
-      <c r="DE3" s="69"/>
-      <c r="DF3" s="69"/>
-      <c r="DG3" s="69"/>
-      <c r="DH3" s="69"/>
-      <c r="DI3" s="69"/>
-      <c r="DJ3" s="69"/>
-      <c r="DK3" s="69"/>
-      <c r="DL3" s="69"/>
-      <c r="DM3" s="69"/>
-      <c r="DN3" s="69"/>
-      <c r="DO3" s="70"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="90"/>
+      <c r="BY3" s="90"/>
+      <c r="BZ3" s="90"/>
+      <c r="CA3" s="90"/>
+      <c r="CB3" s="90"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="90"/>
+      <c r="CE3" s="90"/>
+      <c r="CF3" s="90"/>
+      <c r="CG3" s="90"/>
+      <c r="CH3" s="90"/>
+      <c r="CI3" s="90"/>
+      <c r="CJ3" s="90"/>
+      <c r="CK3" s="90"/>
+      <c r="CL3" s="90"/>
+      <c r="CM3" s="90"/>
+      <c r="CN3" s="90"/>
+      <c r="CO3" s="90"/>
+      <c r="CP3" s="90"/>
+      <c r="CQ3" s="90"/>
+      <c r="CR3" s="90"/>
+      <c r="CS3" s="90"/>
+      <c r="CT3" s="90"/>
+      <c r="CU3" s="90"/>
+      <c r="CV3" s="90"/>
+      <c r="CW3" s="90"/>
+      <c r="CX3" s="90"/>
+      <c r="CY3" s="90"/>
+      <c r="CZ3" s="90"/>
+      <c r="DA3" s="90"/>
+      <c r="DB3" s="90"/>
+      <c r="DC3" s="90"/>
+      <c r="DD3" s="90"/>
+      <c r="DE3" s="90"/>
+      <c r="DF3" s="90"/>
+      <c r="DG3" s="90"/>
+      <c r="DH3" s="90"/>
+      <c r="DI3" s="90"/>
+      <c r="DJ3" s="90"/>
+      <c r="DK3" s="90"/>
+      <c r="DL3" s="90"/>
+      <c r="DM3" s="90"/>
+      <c r="DN3" s="90"/>
+      <c r="DO3" s="91"/>
     </row>
     <row r="4" spans="2:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="71" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="71" t="s">
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="99" t="s">
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="77" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="39"/>
@@ -2127,61 +2141,61 @@
       <c r="DO4" s="41"/>
     </row>
     <row r="5" spans="2:119" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="96" t="s">
+      <c r="L5" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="100" t="s">
+      <c r="S5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="51"/>
+      <c r="T5" s="48"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
@@ -2283,124 +2297,124 @@
       <c r="DO5" s="26"/>
     </row>
     <row r="6" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="49"/>
-      <c r="CA6" s="49"/>
-      <c r="CB6" s="49"/>
-      <c r="CC6" s="49"/>
-      <c r="CD6" s="49"/>
-      <c r="CE6" s="49"/>
-      <c r="CF6" s="49"/>
-      <c r="CG6" s="49"/>
-      <c r="CH6" s="49"/>
-      <c r="CI6" s="49"/>
-      <c r="CJ6" s="49"/>
-      <c r="CK6" s="49"/>
-      <c r="CL6" s="49"/>
-      <c r="CM6" s="49"/>
-      <c r="CN6" s="49"/>
-      <c r="CO6" s="49"/>
-      <c r="CP6" s="49"/>
-      <c r="CQ6" s="49"/>
-      <c r="CR6" s="49"/>
-      <c r="CS6" s="49"/>
-      <c r="CT6" s="49"/>
-      <c r="CU6" s="49"/>
-      <c r="CV6" s="49"/>
-      <c r="CW6" s="49"/>
-      <c r="CX6" s="49"/>
-      <c r="CY6" s="49"/>
-      <c r="CZ6" s="49"/>
-      <c r="DA6" s="49"/>
-      <c r="DB6" s="49"/>
-      <c r="DC6" s="49"/>
-      <c r="DD6" s="49"/>
-      <c r="DE6" s="49"/>
-      <c r="DF6" s="49"/>
-      <c r="DG6" s="49"/>
-      <c r="DH6" s="49"/>
-      <c r="DI6" s="49"/>
-      <c r="DJ6" s="49"/>
-      <c r="DK6" s="49"/>
-      <c r="DL6" s="49"/>
-      <c r="DM6" s="49"/>
-      <c r="DN6" s="49"/>
-      <c r="DO6" s="50"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="46"/>
+      <c r="BT6" s="46"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="46"/>
+      <c r="BX6" s="46"/>
+      <c r="BY6" s="46"/>
+      <c r="BZ6" s="46"/>
+      <c r="CA6" s="46"/>
+      <c r="CB6" s="46"/>
+      <c r="CC6" s="46"/>
+      <c r="CD6" s="46"/>
+      <c r="CE6" s="46"/>
+      <c r="CF6" s="46"/>
+      <c r="CG6" s="46"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="46"/>
+      <c r="CJ6" s="46"/>
+      <c r="CK6" s="46"/>
+      <c r="CL6" s="46"/>
+      <c r="CM6" s="46"/>
+      <c r="CN6" s="46"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="46"/>
+      <c r="CQ6" s="46"/>
+      <c r="CR6" s="46"/>
+      <c r="CS6" s="46"/>
+      <c r="CT6" s="46"/>
+      <c r="CU6" s="46"/>
+      <c r="CV6" s="46"/>
+      <c r="CW6" s="46"/>
+      <c r="CX6" s="46"/>
+      <c r="CY6" s="46"/>
+      <c r="CZ6" s="46"/>
+      <c r="DA6" s="46"/>
+      <c r="DB6" s="46"/>
+      <c r="DC6" s="46"/>
+      <c r="DD6" s="46"/>
+      <c r="DE6" s="46"/>
+      <c r="DF6" s="46"/>
+      <c r="DG6" s="46"/>
+      <c r="DH6" s="46"/>
+      <c r="DI6" s="46"/>
+      <c r="DJ6" s="46"/>
+      <c r="DK6" s="46"/>
+      <c r="DL6" s="46"/>
+      <c r="DM6" s="46"/>
+      <c r="DN6" s="46"/>
+      <c r="DO6" s="47"/>
     </row>
     <row r="7" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
@@ -2414,13 +2428,13 @@
       <c r="J7" s="29"/>
       <c r="K7" s="27"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="81"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="37"/>
-      <c r="O7" s="82"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="37"/>
-      <c r="Q7" s="82"/>
+      <c r="Q7" s="60"/>
       <c r="R7" s="34"/>
-      <c r="S7" s="43"/>
+      <c r="S7" s="98"/>
     </row>
     <row r="8" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
@@ -2434,13 +2448,13 @@
       <c r="J8" s="29"/>
       <c r="K8" s="27"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="81"/>
+      <c r="M8" s="59"/>
       <c r="N8" s="37"/>
-      <c r="O8" s="82"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="37"/>
-      <c r="Q8" s="82"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="43"/>
+      <c r="S8" s="98"/>
     </row>
     <row r="9" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
@@ -2454,13 +2468,13 @@
       <c r="J9" s="29"/>
       <c r="K9" s="27"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="81"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="37"/>
-      <c r="O9" s="82"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="37"/>
-      <c r="Q9" s="82"/>
+      <c r="Q9" s="60"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="43"/>
+      <c r="S9" s="98"/>
     </row>
     <row r="10" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
@@ -2474,13 +2488,13 @@
       <c r="J10" s="29"/>
       <c r="K10" s="27"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="81"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="37"/>
-      <c r="O10" s="82"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="37"/>
-      <c r="Q10" s="82"/>
+      <c r="Q10" s="60"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="43"/>
+      <c r="S10" s="98"/>
     </row>
     <row r="11" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
@@ -2494,13 +2508,13 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="81"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="37"/>
-      <c r="O11" s="82"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="37"/>
-      <c r="Q11" s="82"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="43"/>
+      <c r="S11" s="98"/>
     </row>
     <row r="12" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
@@ -2514,13 +2528,13 @@
       <c r="J12" s="29"/>
       <c r="K12" s="27"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="81"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="37"/>
-      <c r="O12" s="82"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="37"/>
-      <c r="Q12" s="82"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="34"/>
-      <c r="S12" s="43"/>
+      <c r="S12" s="98"/>
     </row>
     <row r="13" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
@@ -2534,13 +2548,13 @@
       <c r="J13" s="29"/>
       <c r="K13" s="27"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="81"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="37"/>
-      <c r="O13" s="82"/>
+      <c r="O13" s="60"/>
       <c r="P13" s="37"/>
-      <c r="Q13" s="82"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="34"/>
-      <c r="S13" s="43"/>
+      <c r="S13" s="98"/>
     </row>
     <row r="14" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
@@ -2554,13 +2568,13 @@
       <c r="J14" s="29"/>
       <c r="K14" s="27"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="37"/>
-      <c r="O14" s="82"/>
+      <c r="O14" s="60"/>
       <c r="P14" s="37"/>
-      <c r="Q14" s="82"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="34"/>
-      <c r="S14" s="43"/>
+      <c r="S14" s="98"/>
     </row>
     <row r="15" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
@@ -2574,13 +2588,13 @@
       <c r="J15" s="29"/>
       <c r="K15" s="27"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="81"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="37"/>
-      <c r="O15" s="82"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="82"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="34"/>
-      <c r="S15" s="43"/>
+      <c r="S15" s="98"/>
     </row>
     <row r="16" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
@@ -2594,13 +2608,13 @@
       <c r="J16" s="29"/>
       <c r="K16" s="27"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="81"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="37"/>
-      <c r="O16" s="82"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="37"/>
-      <c r="Q16" s="82"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="34"/>
-      <c r="S16" s="43"/>
+      <c r="S16" s="98"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
@@ -2614,13 +2628,13 @@
       <c r="J17" s="29"/>
       <c r="K17" s="27"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="81"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="37"/>
-      <c r="O17" s="82"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="37"/>
-      <c r="Q17" s="82"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="34"/>
-      <c r="S17" s="43"/>
+      <c r="S17" s="98"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
@@ -2634,13 +2648,13 @@
       <c r="J18" s="29"/>
       <c r="K18" s="27"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="81"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="37"/>
-      <c r="O18" s="82"/>
+      <c r="O18" s="60"/>
       <c r="P18" s="37"/>
-      <c r="Q18" s="82"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="34"/>
-      <c r="S18" s="43"/>
+      <c r="S18" s="98"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
@@ -2654,13 +2668,13 @@
       <c r="J19" s="29"/>
       <c r="K19" s="27"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="81"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="37"/>
-      <c r="O19" s="82"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="37"/>
-      <c r="Q19" s="82"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="43"/>
+      <c r="S19" s="98"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
@@ -2674,13 +2688,13 @@
       <c r="J20" s="29"/>
       <c r="K20" s="27"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="81"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="37"/>
-      <c r="O20" s="82"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="37"/>
-      <c r="Q20" s="82"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="34"/>
-      <c r="S20" s="43"/>
+      <c r="S20" s="98"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
@@ -2694,13 +2708,13 @@
       <c r="J21" s="29"/>
       <c r="K21" s="27"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="81"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="37"/>
-      <c r="O21" s="82"/>
+      <c r="O21" s="60"/>
       <c r="P21" s="37"/>
-      <c r="Q21" s="82"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="34"/>
-      <c r="S21" s="43"/>
+      <c r="S21" s="98"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
@@ -2714,13 +2728,13 @@
       <c r="J22" s="29"/>
       <c r="K22" s="27"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="81"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="37"/>
-      <c r="O22" s="82"/>
+      <c r="O22" s="60"/>
       <c r="P22" s="37"/>
-      <c r="Q22" s="82"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="34"/>
-      <c r="S22" s="43"/>
+      <c r="S22" s="98"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
@@ -2734,13 +2748,13 @@
       <c r="J23" s="29"/>
       <c r="K23" s="27"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="81"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="82"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="37"/>
-      <c r="Q23" s="82"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="34"/>
-      <c r="S23" s="43"/>
+      <c r="S23" s="98"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
@@ -2754,13 +2768,13 @@
       <c r="J24" s="29"/>
       <c r="K24" s="27"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="81"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="37"/>
-      <c r="O24" s="82"/>
+      <c r="O24" s="60"/>
       <c r="P24" s="37"/>
-      <c r="Q24" s="82"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="34"/>
-      <c r="S24" s="43"/>
+      <c r="S24" s="98"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
@@ -2774,13 +2788,13 @@
       <c r="J25" s="29"/>
       <c r="K25" s="27"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="81"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="37"/>
-      <c r="O25" s="82"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="37"/>
-      <c r="Q25" s="82"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="34"/>
-      <c r="S25" s="43"/>
+      <c r="S25" s="98"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
@@ -2794,13 +2808,13 @@
       <c r="J26" s="29"/>
       <c r="K26" s="27"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="81"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="37"/>
-      <c r="O26" s="82"/>
+      <c r="O26" s="60"/>
       <c r="P26" s="37"/>
-      <c r="Q26" s="82"/>
+      <c r="Q26" s="60"/>
       <c r="R26" s="34"/>
-      <c r="S26" s="43"/>
+      <c r="S26" s="98"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
@@ -2814,13 +2828,13 @@
       <c r="J27" s="29"/>
       <c r="K27" s="27"/>
       <c r="L27" s="34"/>
-      <c r="M27" s="81"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="37"/>
-      <c r="O27" s="82"/>
+      <c r="O27" s="60"/>
       <c r="P27" s="37"/>
-      <c r="Q27" s="82"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="34"/>
-      <c r="S27" s="43"/>
+      <c r="S27" s="98"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
@@ -2834,13 +2848,13 @@
       <c r="J28" s="29"/>
       <c r="K28" s="27"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="81"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="37"/>
-      <c r="O28" s="82"/>
+      <c r="O28" s="60"/>
       <c r="P28" s="37"/>
-      <c r="Q28" s="82"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="34"/>
-      <c r="S28" s="43"/>
+      <c r="S28" s="98"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
@@ -2854,13 +2868,13 @@
       <c r="J29" s="29"/>
       <c r="K29" s="27"/>
       <c r="L29" s="34"/>
-      <c r="M29" s="81"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="37"/>
-      <c r="O29" s="82"/>
+      <c r="O29" s="60"/>
       <c r="P29" s="37"/>
-      <c r="Q29" s="82"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="34"/>
-      <c r="S29" s="43"/>
+      <c r="S29" s="98"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
@@ -2874,13 +2888,13 @@
       <c r="J30" s="29"/>
       <c r="K30" s="27"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="81"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="37"/>
-      <c r="O30" s="82"/>
+      <c r="O30" s="60"/>
       <c r="P30" s="37"/>
-      <c r="Q30" s="82"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="34"/>
-      <c r="S30" s="43"/>
+      <c r="S30" s="98"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -2894,13 +2908,13 @@
       <c r="J31" s="29"/>
       <c r="K31" s="27"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="81"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="37"/>
-      <c r="O31" s="82"/>
+      <c r="O31" s="60"/>
       <c r="P31" s="37"/>
-      <c r="Q31" s="82"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="34"/>
-      <c r="S31" s="43"/>
+      <c r="S31" s="98"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
@@ -2914,13 +2928,13 @@
       <c r="J32" s="29"/>
       <c r="K32" s="27"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="81"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="37"/>
-      <c r="O32" s="82"/>
+      <c r="O32" s="60"/>
       <c r="P32" s="37"/>
-      <c r="Q32" s="82"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="34"/>
-      <c r="S32" s="43"/>
+      <c r="S32" s="98"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
@@ -2934,13 +2948,13 @@
       <c r="J33" s="29"/>
       <c r="K33" s="27"/>
       <c r="L33" s="34"/>
-      <c r="M33" s="81"/>
+      <c r="M33" s="59"/>
       <c r="N33" s="37"/>
-      <c r="O33" s="82"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="37"/>
-      <c r="Q33" s="82"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="34"/>
-      <c r="S33" s="43"/>
+      <c r="S33" s="98"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
@@ -2954,13 +2968,13 @@
       <c r="J34" s="29"/>
       <c r="K34" s="27"/>
       <c r="L34" s="34"/>
-      <c r="M34" s="81"/>
+      <c r="M34" s="59"/>
       <c r="N34" s="37"/>
-      <c r="O34" s="82"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="37"/>
-      <c r="Q34" s="82"/>
+      <c r="Q34" s="60"/>
       <c r="R34" s="34"/>
-      <c r="S34" s="43"/>
+      <c r="S34" s="98"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
@@ -2974,13 +2988,13 @@
       <c r="J35" s="29"/>
       <c r="K35" s="27"/>
       <c r="L35" s="34"/>
-      <c r="M35" s="81"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="37"/>
-      <c r="O35" s="82"/>
+      <c r="O35" s="60"/>
       <c r="P35" s="37"/>
-      <c r="Q35" s="82"/>
+      <c r="Q35" s="60"/>
       <c r="R35" s="34"/>
-      <c r="S35" s="43"/>
+      <c r="S35" s="98"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
@@ -2994,13 +3008,13 @@
       <c r="J36" s="29"/>
       <c r="K36" s="27"/>
       <c r="L36" s="34"/>
-      <c r="M36" s="81"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="37"/>
-      <c r="O36" s="82"/>
+      <c r="O36" s="60"/>
       <c r="P36" s="37"/>
-      <c r="Q36" s="82"/>
+      <c r="Q36" s="60"/>
       <c r="R36" s="34"/>
-      <c r="S36" s="43"/>
+      <c r="S36" s="98"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -3014,13 +3028,13 @@
       <c r="J37" s="29"/>
       <c r="K37" s="27"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="81"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="37"/>
-      <c r="O37" s="82"/>
+      <c r="O37" s="60"/>
       <c r="P37" s="37"/>
-      <c r="Q37" s="82"/>
+      <c r="Q37" s="60"/>
       <c r="R37" s="34"/>
-      <c r="S37" s="43"/>
+      <c r="S37" s="98"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
@@ -3034,13 +3048,13 @@
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="81"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="37"/>
-      <c r="O38" s="82"/>
+      <c r="O38" s="60"/>
       <c r="P38" s="37"/>
-      <c r="Q38" s="82"/>
+      <c r="Q38" s="60"/>
       <c r="R38" s="34"/>
-      <c r="S38" s="43"/>
+      <c r="S38" s="98"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -3054,13 +3068,13 @@
       <c r="J39" s="29"/>
       <c r="K39" s="27"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="81"/>
+      <c r="M39" s="59"/>
       <c r="N39" s="37"/>
-      <c r="O39" s="82"/>
+      <c r="O39" s="60"/>
       <c r="P39" s="37"/>
-      <c r="Q39" s="82"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="34"/>
-      <c r="S39" s="43"/>
+      <c r="S39" s="98"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
@@ -3074,13 +3088,13 @@
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="81"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="37"/>
-      <c r="O40" s="82"/>
+      <c r="O40" s="60"/>
       <c r="P40" s="37"/>
-      <c r="Q40" s="82"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="34"/>
-      <c r="S40" s="43"/>
+      <c r="S40" s="98"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -3094,13 +3108,13 @@
       <c r="J41" s="29"/>
       <c r="K41" s="27"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="81"/>
+      <c r="M41" s="59"/>
       <c r="N41" s="37"/>
-      <c r="O41" s="82"/>
+      <c r="O41" s="60"/>
       <c r="P41" s="37"/>
-      <c r="Q41" s="82"/>
+      <c r="Q41" s="60"/>
       <c r="R41" s="34"/>
-      <c r="S41" s="43"/>
+      <c r="S41" s="98"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -3114,13 +3128,13 @@
       <c r="J42" s="29"/>
       <c r="K42" s="27"/>
       <c r="L42" s="34"/>
-      <c r="M42" s="81"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="37"/>
-      <c r="O42" s="82"/>
+      <c r="O42" s="60"/>
       <c r="P42" s="37"/>
-      <c r="Q42" s="82"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="34"/>
-      <c r="S42" s="43"/>
+      <c r="S42" s="98"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
@@ -3134,13 +3148,13 @@
       <c r="J43" s="29"/>
       <c r="K43" s="27"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="81"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="37"/>
-      <c r="O43" s="82"/>
+      <c r="O43" s="60"/>
       <c r="P43" s="37"/>
-      <c r="Q43" s="82"/>
+      <c r="Q43" s="60"/>
       <c r="R43" s="34"/>
-      <c r="S43" s="43"/>
+      <c r="S43" s="98"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
@@ -3154,13 +3168,13 @@
       <c r="J44" s="29"/>
       <c r="K44" s="27"/>
       <c r="L44" s="34"/>
-      <c r="M44" s="81"/>
+      <c r="M44" s="59"/>
       <c r="N44" s="37"/>
-      <c r="O44" s="82"/>
+      <c r="O44" s="60"/>
       <c r="P44" s="37"/>
-      <c r="Q44" s="82"/>
+      <c r="Q44" s="60"/>
       <c r="R44" s="34"/>
-      <c r="S44" s="43"/>
+      <c r="S44" s="98"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
@@ -3174,13 +3188,13 @@
       <c r="J45" s="29"/>
       <c r="K45" s="27"/>
       <c r="L45" s="34"/>
-      <c r="M45" s="81"/>
+      <c r="M45" s="59"/>
       <c r="N45" s="37"/>
-      <c r="O45" s="82"/>
+      <c r="O45" s="60"/>
       <c r="P45" s="37"/>
-      <c r="Q45" s="82"/>
+      <c r="Q45" s="60"/>
       <c r="R45" s="34"/>
-      <c r="S45" s="43"/>
+      <c r="S45" s="98"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
@@ -3194,13 +3208,13 @@
       <c r="J46" s="29"/>
       <c r="K46" s="27"/>
       <c r="L46" s="34"/>
-      <c r="M46" s="81"/>
+      <c r="M46" s="59"/>
       <c r="N46" s="37"/>
-      <c r="O46" s="82"/>
+      <c r="O46" s="60"/>
       <c r="P46" s="37"/>
-      <c r="Q46" s="82"/>
+      <c r="Q46" s="60"/>
       <c r="R46" s="34"/>
-      <c r="S46" s="43"/>
+      <c r="S46" s="98"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
@@ -3214,13 +3228,13 @@
       <c r="J47" s="29"/>
       <c r="K47" s="27"/>
       <c r="L47" s="34"/>
-      <c r="M47" s="81"/>
+      <c r="M47" s="59"/>
       <c r="N47" s="37"/>
-      <c r="O47" s="82"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="37"/>
-      <c r="Q47" s="82"/>
+      <c r="Q47" s="60"/>
       <c r="R47" s="34"/>
-      <c r="S47" s="43"/>
+      <c r="S47" s="98"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
@@ -3234,13 +3248,13 @@
       <c r="J48" s="29"/>
       <c r="K48" s="27"/>
       <c r="L48" s="34"/>
-      <c r="M48" s="81"/>
+      <c r="M48" s="59"/>
       <c r="N48" s="37"/>
-      <c r="O48" s="82"/>
+      <c r="O48" s="60"/>
       <c r="P48" s="37"/>
-      <c r="Q48" s="82"/>
+      <c r="Q48" s="60"/>
       <c r="R48" s="34"/>
-      <c r="S48" s="43"/>
+      <c r="S48" s="98"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
@@ -3254,13 +3268,13 @@
       <c r="J49" s="29"/>
       <c r="K49" s="27"/>
       <c r="L49" s="34"/>
-      <c r="M49" s="81"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="37"/>
-      <c r="O49" s="82"/>
+      <c r="O49" s="60"/>
       <c r="P49" s="37"/>
-      <c r="Q49" s="82"/>
+      <c r="Q49" s="60"/>
       <c r="R49" s="34"/>
-      <c r="S49" s="43"/>
+      <c r="S49" s="98"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
@@ -3274,13 +3288,13 @@
       <c r="J50" s="29"/>
       <c r="K50" s="27"/>
       <c r="L50" s="34"/>
-      <c r="M50" s="81"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="37"/>
-      <c r="O50" s="82"/>
+      <c r="O50" s="60"/>
       <c r="P50" s="37"/>
-      <c r="Q50" s="82"/>
+      <c r="Q50" s="60"/>
       <c r="R50" s="34"/>
-      <c r="S50" s="43"/>
+      <c r="S50" s="98"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
@@ -3294,13 +3308,13 @@
       <c r="J51" s="29"/>
       <c r="K51" s="27"/>
       <c r="L51" s="34"/>
-      <c r="M51" s="81"/>
+      <c r="M51" s="59"/>
       <c r="N51" s="37"/>
-      <c r="O51" s="82"/>
+      <c r="O51" s="60"/>
       <c r="P51" s="37"/>
-      <c r="Q51" s="82"/>
+      <c r="Q51" s="60"/>
       <c r="R51" s="34"/>
-      <c r="S51" s="43"/>
+      <c r="S51" s="98"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
@@ -3314,13 +3328,13 @@
       <c r="J52" s="29"/>
       <c r="K52" s="27"/>
       <c r="L52" s="34"/>
-      <c r="M52" s="81"/>
+      <c r="M52" s="59"/>
       <c r="N52" s="37"/>
-      <c r="O52" s="82"/>
+      <c r="O52" s="60"/>
       <c r="P52" s="37"/>
-      <c r="Q52" s="82"/>
+      <c r="Q52" s="60"/>
       <c r="R52" s="34"/>
-      <c r="S52" s="43"/>
+      <c r="S52" s="98"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
@@ -3334,13 +3348,13 @@
       <c r="J53" s="29"/>
       <c r="K53" s="27"/>
       <c r="L53" s="34"/>
-      <c r="M53" s="81"/>
+      <c r="M53" s="59"/>
       <c r="N53" s="37"/>
-      <c r="O53" s="82"/>
+      <c r="O53" s="60"/>
       <c r="P53" s="37"/>
-      <c r="Q53" s="82"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="34"/>
-      <c r="S53" s="43"/>
+      <c r="S53" s="98"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
@@ -3354,13 +3368,13 @@
       <c r="J54" s="29"/>
       <c r="K54" s="27"/>
       <c r="L54" s="34"/>
-      <c r="M54" s="81"/>
+      <c r="M54" s="59"/>
       <c r="N54" s="37"/>
-      <c r="O54" s="82"/>
+      <c r="O54" s="60"/>
       <c r="P54" s="37"/>
-      <c r="Q54" s="82"/>
+      <c r="Q54" s="60"/>
       <c r="R54" s="34"/>
-      <c r="S54" s="43"/>
+      <c r="S54" s="98"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
@@ -3374,19 +3388,19 @@
       <c r="J55" s="29"/>
       <c r="K55" s="27"/>
       <c r="L55" s="34"/>
-      <c r="M55" s="81"/>
+      <c r="M55" s="59"/>
       <c r="N55" s="37"/>
-      <c r="O55" s="82"/>
+      <c r="O55" s="60"/>
       <c r="P55" s="37"/>
-      <c r="Q55" s="82"/>
+      <c r="Q55" s="60"/>
       <c r="R55" s="34"/>
-      <c r="S55" s="43"/>
+      <c r="S55" s="98"/>
     </row>
     <row r="1048576" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1048576" s="45"/>
+      <c r="S1048576" s="99"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vfuQBsjP/BmZQKMj+HrgT/xEQR5pTxaGDQ6/0gL8g+nFvX2MIG/IPHowOYQ8AvGEXOk4ESLQVCoYTcdx5NtqxQ==" saltValue="h/zXVtd4vjntsDnDQvdAXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vE61jSJITDQ+YW7QXjthNbRNF0waqWtCpVG5weWzHheUUEZ17EZtGu+fkXLQF/AWw8XZINLrZt6maZlvEQxkJA==" saltValue="+dGKFruq2dq+vJN8smuj3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="T3:DO3"/>
     <mergeCell ref="B4:F4"/>
@@ -3395,6 +3409,16 @@
     <mergeCell ref="M4:R4"/>
     <mergeCell ref="B2:R3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:R1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:DO1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>T6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 M5 O5 Q5 C5:K5" xr:uid="{B1699078-27D6-472D-B920-0B9DAA1EA97D}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3AR-multiple.xlsx
+++ b/forms/Form-3AR-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B04B88-3612-4C35-94B8-9F7ACC4B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA6AF7-1F6E-48E8-97E8-9A43D49CAD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+fpbANi5+/yFWHPxzEqaReNDzPx7npT1czOQfFrctV9jGFhmw0Jnw7c42DyBMqUzdexUCp19VjI1OGlWew7xXA==" workbookSaltValue="bMmY3IsF10EHABvsu//kNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1022,6 +1022,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1082,11 +1087,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1435,24 +1435,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1502,15 +1502,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,11 +1681,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DO1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1753,7 +1753,7 @@
     <col min="16" max="16" width="6.42578125" style="65" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="61" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" style="64" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="100" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="81" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="56"/>
     <col min="21" max="118" width="9.140625" style="37"/>
     <col min="119" max="119" width="9.140625" style="34"/>
@@ -1767,25 +1767,25 @@
       <c r="R1" s="33"/>
     </row>
     <row r="2" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
       <c r="S2" s="30"/>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
@@ -1889,153 +1889,153 @@
       <c r="DO2" s="32"/>
     </row>
     <row r="3" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
       <c r="S3" s="31"/>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BL3" s="90"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="90"/>
-      <c r="BW3" s="90"/>
-      <c r="BX3" s="90"/>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="90"/>
-      <c r="CB3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CD3" s="90"/>
-      <c r="CE3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CG3" s="90"/>
-      <c r="CH3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CJ3" s="90"/>
-      <c r="CK3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CM3" s="90"/>
-      <c r="CN3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CP3" s="90"/>
-      <c r="CQ3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CS3" s="90"/>
-      <c r="CT3" s="90"/>
-      <c r="CU3" s="90"/>
-      <c r="CV3" s="90"/>
-      <c r="CW3" s="90"/>
-      <c r="CX3" s="90"/>
-      <c r="CY3" s="90"/>
-      <c r="CZ3" s="90"/>
-      <c r="DA3" s="90"/>
-      <c r="DB3" s="90"/>
-      <c r="DC3" s="90"/>
-      <c r="DD3" s="90"/>
-      <c r="DE3" s="90"/>
-      <c r="DF3" s="90"/>
-      <c r="DG3" s="90"/>
-      <c r="DH3" s="90"/>
-      <c r="DI3" s="90"/>
-      <c r="DJ3" s="90"/>
-      <c r="DK3" s="90"/>
-      <c r="DL3" s="90"/>
-      <c r="DM3" s="90"/>
-      <c r="DN3" s="90"/>
-      <c r="DO3" s="91"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="93"/>
+      <c r="BW3" s="93"/>
+      <c r="BX3" s="93"/>
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="93"/>
+      <c r="CA3" s="93"/>
+      <c r="CB3" s="93"/>
+      <c r="CC3" s="93"/>
+      <c r="CD3" s="93"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+      <c r="CG3" s="93"/>
+      <c r="CH3" s="93"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="93"/>
+      <c r="CK3" s="93"/>
+      <c r="CL3" s="93"/>
+      <c r="CM3" s="93"/>
+      <c r="CN3" s="93"/>
+      <c r="CO3" s="93"/>
+      <c r="CP3" s="93"/>
+      <c r="CQ3" s="93"/>
+      <c r="CR3" s="93"/>
+      <c r="CS3" s="93"/>
+      <c r="CT3" s="93"/>
+      <c r="CU3" s="93"/>
+      <c r="CV3" s="93"/>
+      <c r="CW3" s="93"/>
+      <c r="CX3" s="93"/>
+      <c r="CY3" s="93"/>
+      <c r="CZ3" s="93"/>
+      <c r="DA3" s="93"/>
+      <c r="DB3" s="93"/>
+      <c r="DC3" s="93"/>
+      <c r="DD3" s="93"/>
+      <c r="DE3" s="93"/>
+      <c r="DF3" s="93"/>
+      <c r="DG3" s="93"/>
+      <c r="DH3" s="93"/>
+      <c r="DI3" s="93"/>
+      <c r="DJ3" s="93"/>
+      <c r="DK3" s="93"/>
+      <c r="DL3" s="93"/>
+      <c r="DM3" s="93"/>
+      <c r="DN3" s="93"/>
+      <c r="DO3" s="94"/>
     </row>
     <row r="4" spans="2:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="92" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="92" t="s">
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="97"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="100"/>
       <c r="S4" s="77" t="s">
         <v>33</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="47"/>
-      <c r="S6" s="98"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="55"/>
       <c r="U6" s="46"/>
       <c r="V6" s="46"/>
@@ -2434,7 +2434,7 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="60"/>
       <c r="R7" s="34"/>
-      <c r="S7" s="98"/>
+      <c r="S7" s="79"/>
     </row>
     <row r="8" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
@@ -2454,7 +2454,7 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="60"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="98"/>
+      <c r="S8" s="79"/>
     </row>
     <row r="9" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
@@ -2474,7 +2474,7 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="60"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="98"/>
+      <c r="S9" s="79"/>
     </row>
     <row r="10" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
@@ -2494,7 +2494,7 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="60"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="98"/>
+      <c r="S10" s="79"/>
     </row>
     <row r="11" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
@@ -2514,7 +2514,7 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="60"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="98"/>
+      <c r="S11" s="79"/>
     </row>
     <row r="12" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
@@ -2534,7 +2534,7 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="60"/>
       <c r="R12" s="34"/>
-      <c r="S12" s="98"/>
+      <c r="S12" s="79"/>
     </row>
     <row r="13" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
@@ -2554,7 +2554,7 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="60"/>
       <c r="R13" s="34"/>
-      <c r="S13" s="98"/>
+      <c r="S13" s="79"/>
     </row>
     <row r="14" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
@@ -2574,7 +2574,7 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="60"/>
       <c r="R14" s="34"/>
-      <c r="S14" s="98"/>
+      <c r="S14" s="79"/>
     </row>
     <row r="15" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
@@ -2594,7 +2594,7 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="60"/>
       <c r="R15" s="34"/>
-      <c r="S15" s="98"/>
+      <c r="S15" s="79"/>
     </row>
     <row r="16" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
@@ -2614,7 +2614,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="60"/>
       <c r="R16" s="34"/>
-      <c r="S16" s="98"/>
+      <c r="S16" s="79"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
@@ -2634,7 +2634,7 @@
       <c r="P17" s="37"/>
       <c r="Q17" s="60"/>
       <c r="R17" s="34"/>
-      <c r="S17" s="98"/>
+      <c r="S17" s="79"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
@@ -2654,7 +2654,7 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="34"/>
-      <c r="S18" s="98"/>
+      <c r="S18" s="79"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
@@ -2674,7 +2674,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="60"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="98"/>
+      <c r="S19" s="79"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
@@ -2694,7 +2694,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="60"/>
       <c r="R20" s="34"/>
-      <c r="S20" s="98"/>
+      <c r="S20" s="79"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
@@ -2714,7 +2714,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="60"/>
       <c r="R21" s="34"/>
-      <c r="S21" s="98"/>
+      <c r="S21" s="79"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
@@ -2734,7 +2734,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="34"/>
-      <c r="S22" s="98"/>
+      <c r="S22" s="79"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
@@ -2754,7 +2754,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="60"/>
       <c r="R23" s="34"/>
-      <c r="S23" s="98"/>
+      <c r="S23" s="79"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
@@ -2774,7 +2774,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="60"/>
       <c r="R24" s="34"/>
-      <c r="S24" s="98"/>
+      <c r="S24" s="79"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
@@ -2794,7 +2794,7 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="60"/>
       <c r="R25" s="34"/>
-      <c r="S25" s="98"/>
+      <c r="S25" s="79"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
@@ -2814,7 +2814,7 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="60"/>
       <c r="R26" s="34"/>
-      <c r="S26" s="98"/>
+      <c r="S26" s="79"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
@@ -2834,7 +2834,7 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="60"/>
       <c r="R27" s="34"/>
-      <c r="S27" s="98"/>
+      <c r="S27" s="79"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
@@ -2854,7 +2854,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="34"/>
-      <c r="S28" s="98"/>
+      <c r="S28" s="79"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
@@ -2874,7 +2874,7 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="60"/>
       <c r="R29" s="34"/>
-      <c r="S29" s="98"/>
+      <c r="S29" s="79"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
@@ -2894,7 +2894,7 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="60"/>
       <c r="R30" s="34"/>
-      <c r="S30" s="98"/>
+      <c r="S30" s="79"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -2914,7 +2914,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="60"/>
       <c r="R31" s="34"/>
-      <c r="S31" s="98"/>
+      <c r="S31" s="79"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
@@ -2934,7 +2934,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="60"/>
       <c r="R32" s="34"/>
-      <c r="S32" s="98"/>
+      <c r="S32" s="79"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
@@ -2954,7 +2954,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="60"/>
       <c r="R33" s="34"/>
-      <c r="S33" s="98"/>
+      <c r="S33" s="79"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
@@ -2974,7 +2974,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="60"/>
       <c r="R34" s="34"/>
-      <c r="S34" s="98"/>
+      <c r="S34" s="79"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
@@ -2994,7 +2994,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="60"/>
       <c r="R35" s="34"/>
-      <c r="S35" s="98"/>
+      <c r="S35" s="79"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
@@ -3014,7 +3014,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="60"/>
       <c r="R36" s="34"/>
-      <c r="S36" s="98"/>
+      <c r="S36" s="79"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -3034,7 +3034,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="60"/>
       <c r="R37" s="34"/>
-      <c r="S37" s="98"/>
+      <c r="S37" s="79"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
@@ -3054,7 +3054,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="60"/>
       <c r="R38" s="34"/>
-      <c r="S38" s="98"/>
+      <c r="S38" s="79"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -3074,7 +3074,7 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="60"/>
       <c r="R39" s="34"/>
-      <c r="S39" s="98"/>
+      <c r="S39" s="79"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
@@ -3094,7 +3094,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="60"/>
       <c r="R40" s="34"/>
-      <c r="S40" s="98"/>
+      <c r="S40" s="79"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -3114,7 +3114,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="60"/>
       <c r="R41" s="34"/>
-      <c r="S41" s="98"/>
+      <c r="S41" s="79"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -3134,7 +3134,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="60"/>
       <c r="R42" s="34"/>
-      <c r="S42" s="98"/>
+      <c r="S42" s="79"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
@@ -3154,7 +3154,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="60"/>
       <c r="R43" s="34"/>
-      <c r="S43" s="98"/>
+      <c r="S43" s="79"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
@@ -3174,7 +3174,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="60"/>
       <c r="R44" s="34"/>
-      <c r="S44" s="98"/>
+      <c r="S44" s="79"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
@@ -3194,7 +3194,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="60"/>
       <c r="R45" s="34"/>
-      <c r="S45" s="98"/>
+      <c r="S45" s="79"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
@@ -3214,7 +3214,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="60"/>
       <c r="R46" s="34"/>
-      <c r="S46" s="98"/>
+      <c r="S46" s="79"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
@@ -3234,7 +3234,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="60"/>
       <c r="R47" s="34"/>
-      <c r="S47" s="98"/>
+      <c r="S47" s="79"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
@@ -3254,7 +3254,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="60"/>
       <c r="R48" s="34"/>
-      <c r="S48" s="98"/>
+      <c r="S48" s="79"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
@@ -3274,7 +3274,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="60"/>
       <c r="R49" s="34"/>
-      <c r="S49" s="98"/>
+      <c r="S49" s="79"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
@@ -3294,7 +3294,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="60"/>
       <c r="R50" s="34"/>
-      <c r="S50" s="98"/>
+      <c r="S50" s="79"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
@@ -3314,7 +3314,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="60"/>
       <c r="R51" s="34"/>
-      <c r="S51" s="98"/>
+      <c r="S51" s="79"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
@@ -3334,7 +3334,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="60"/>
       <c r="R52" s="34"/>
-      <c r="S52" s="98"/>
+      <c r="S52" s="79"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
@@ -3354,7 +3354,7 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="60"/>
       <c r="R53" s="34"/>
-      <c r="S53" s="98"/>
+      <c r="S53" s="79"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
@@ -3374,7 +3374,7 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="60"/>
       <c r="R54" s="34"/>
-      <c r="S54" s="98"/>
+      <c r="S54" s="79"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
@@ -3394,10 +3394,10 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="60"/>
       <c r="R55" s="34"/>
-      <c r="S55" s="98"/>
+      <c r="S55" s="79"/>
     </row>
     <row r="1048576" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1048576" s="99"/>
+      <c r="S1048576" s="80"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vE61jSJITDQ+YW7QXjthNbRNF0waqWtCpVG5weWzHheUUEZ17EZtGu+fkXLQF/AWw8XZINLrZt6maZlvEQxkJA==" saltValue="+dGKFruq2dq+vJN8smuj3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/forms/Form-3AR-multiple.xlsx
+++ b/forms/Form-3AR-multiple.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA6AF7-1F6E-48E8-97E8-9A43D49CAD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE025A0-8B54-412F-B0F9-BCDC454798CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+fpbANi5+/yFWHPxzEqaReNDzPx7npT1czOQfFrctV9jGFhmw0Jnw7c42DyBMqUzdexUCp19VjI1OGlWew7xXA==" workbookSaltValue="bMmY3IsF10EHABvsu//kNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
